--- a/rootpath_PicWall/app02/tools/pyxls/pyxls_results/workbook3.for.human.water.xlsx
+++ b/rootpath_PicWall/app02/tools/pyxls/pyxls_results/workbook3.for.human.water.xlsx
@@ -27,17 +27,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF0000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,9 +47,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -352,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,48 +392,28 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>A1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>3270.972332946494</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>465.7601670535061</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>163.2675</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Ca:1.5305000000000002</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Cb:10.7485</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Old_Col2:4139.8236</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Old_Col3:589.4776</t>
-        </is>
+      <c r="B2" t="n">
+        <v>237.8959</v>
+      </c>
+      <c r="C2" t="n">
+        <v>201.9668</v>
+      </c>
+      <c r="D2" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3296.8698</v>
       </c>
     </row>
     <row r="3">
@@ -449,10 +423,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>432.4767</v>
+        <v>203.943</v>
       </c>
       <c r="C3" t="n">
-        <v>480.2729</v>
+        <v>266.2912</v>
       </c>
       <c r="D3" t="n">
         <v>163.2675</v>
@@ -464,7 +438,7 @@
         <v>4000</v>
       </c>
       <c r="G3" t="n">
-        <v>2823.9829</v>
+        <v>3266.4983</v>
       </c>
     </row>
     <row r="4">
@@ -474,10 +448,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>523.2688000000001</v>
+        <v>309.0807</v>
       </c>
       <c r="C4" t="n">
-        <v>606.8094</v>
+        <v>253.4451</v>
       </c>
       <c r="D4" t="n">
         <v>163.2675</v>
@@ -489,7 +463,7 @@
         <v>4000</v>
       </c>
       <c r="G4" t="n">
-        <v>2606.6543</v>
+        <v>3174.2067</v>
       </c>
     </row>
     <row r="5">
@@ -499,10 +473,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.1634</v>
+        <v>286.3146</v>
       </c>
       <c r="C5" t="n">
-        <v>492.2886</v>
+        <v>288.4261</v>
       </c>
       <c r="D5" t="n">
         <v>163.2675</v>
@@ -514,7 +488,7 @@
         <v>4000</v>
       </c>
       <c r="G5" t="n">
-        <v>2280.2805</v>
+        <v>3161.9918</v>
       </c>
     </row>
     <row r="6">
@@ -524,10 +498,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>546.3246</v>
+        <v>219.9733</v>
       </c>
       <c r="C6" t="n">
-        <v>745.3679</v>
+        <v>341.5725</v>
       </c>
       <c r="D6" t="n">
         <v>163.2675</v>
@@ -539,7 +513,7 @@
         <v>4000</v>
       </c>
       <c r="G6" t="n">
-        <v>2445.04</v>
+        <v>3175.1867</v>
       </c>
     </row>
     <row r="7">
@@ -549,10 +523,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>500.2566</v>
+        <v>177.1837</v>
       </c>
       <c r="C7" t="n">
-        <v>573.4715</v>
+        <v>266.3808</v>
       </c>
       <c r="D7" t="n">
         <v>163.2675</v>
@@ -564,7 +538,7 @@
         <v>4000</v>
       </c>
       <c r="G7" t="n">
-        <v>2663.0044</v>
+        <v>3293.168</v>
       </c>
     </row>
     <row r="8">
@@ -574,10 +548,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>420.0617</v>
+        <v>189.9195</v>
       </c>
       <c r="C8" t="n">
-        <v>460.0806</v>
+        <v>206.4012</v>
       </c>
       <c r="D8" t="n">
         <v>163.2675</v>
@@ -589,7 +563,7 @@
         <v>4000</v>
       </c>
       <c r="G8" t="n">
-        <v>2856.5902</v>
+        <v>3340.4118</v>
       </c>
     </row>
     <row r="9">
@@ -599,10 +573,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>466.62</v>
+        <v>256.9812</v>
       </c>
       <c r="C9" t="n">
-        <v>464.2609</v>
+        <v>241.8367</v>
       </c>
       <c r="D9" t="n">
         <v>163.2675</v>
@@ -614,7 +588,7 @@
         <v>4000</v>
       </c>
       <c r="G9" t="n">
-        <v>2805.8516</v>
+        <v>3237.9146</v>
       </c>
     </row>
     <row r="10">
@@ -624,10 +598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>543.606</v>
+        <v>194.7172</v>
       </c>
       <c r="C10" t="n">
-        <v>491.3723</v>
+        <v>244.5058</v>
       </c>
       <c r="D10" t="n">
         <v>163.2675</v>
@@ -639,7 +613,7 @@
         <v>4000</v>
       </c>
       <c r="G10" t="n">
-        <v>2701.7542</v>
+        <v>3297.5095</v>
       </c>
     </row>
     <row r="11">
@@ -649,10 +623,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>596.2452</v>
+        <v>216.8415</v>
       </c>
       <c r="C11" t="n">
-        <v>458.4826</v>
+        <v>333.0968</v>
       </c>
       <c r="D11" t="n">
         <v>163.2675</v>
@@ -664,7 +638,7 @@
         <v>4000</v>
       </c>
       <c r="G11" t="n">
-        <v>2682.0047</v>
+        <v>3186.7942</v>
       </c>
     </row>
     <row r="12">
@@ -674,10 +648,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>589.7519</v>
+        <v>207.2925</v>
       </c>
       <c r="C12" t="n">
-        <v>482.9084</v>
+        <v>316.0179</v>
       </c>
       <c r="D12" t="n">
         <v>163.2675</v>
@@ -689,7 +663,7 @@
         <v>4000</v>
       </c>
       <c r="G12" t="n">
-        <v>2664.0722</v>
+        <v>3213.4221</v>
       </c>
     </row>
     <row r="13">
@@ -699,10 +673,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>642.8244999999999</v>
+        <v>265.8443</v>
       </c>
       <c r="C13" t="n">
-        <v>443.6198</v>
+        <v>223.7328</v>
       </c>
       <c r="D13" t="n">
         <v>163.2675</v>
@@ -714,7 +688,7 @@
         <v>4000</v>
       </c>
       <c r="G13" t="n">
-        <v>2650.2882</v>
+        <v>3247.1554</v>
       </c>
     </row>
     <row r="14">
@@ -724,10 +698,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>536.154</v>
+        <v>224.8283</v>
       </c>
       <c r="C14" t="n">
-        <v>539.9463</v>
+        <v>290.276</v>
       </c>
       <c r="D14" t="n">
         <v>163.2675</v>
@@ -739,7 +713,7 @@
         <v>4000</v>
       </c>
       <c r="G14" t="n">
-        <v>2660.6322</v>
+        <v>3221.6282</v>
       </c>
     </row>
     <row r="15">
@@ -749,10 +723,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>553.4349</v>
+        <v>248.2807</v>
       </c>
       <c r="C15" t="n">
-        <v>419.0615</v>
+        <v>205.6375</v>
       </c>
       <c r="D15" t="n">
         <v>163.2675</v>
@@ -764,7 +738,7 @@
         <v>4000</v>
       </c>
       <c r="G15" t="n">
-        <v>2764.2361</v>
+        <v>3282.8143</v>
       </c>
     </row>
     <row r="16">
@@ -774,10 +748,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>530.8089</v>
+        <v>211.4855</v>
       </c>
       <c r="C16" t="n">
-        <v>405.3354</v>
+        <v>231.0933</v>
       </c>
       <c r="D16" t="n">
         <v>163.2675</v>
@@ -789,7 +763,7 @@
         <v>4000</v>
       </c>
       <c r="G16" t="n">
-        <v>2800.5882</v>
+        <v>3294.1537</v>
       </c>
     </row>
     <row r="17">
@@ -799,10 +773,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>592.8421</v>
+        <v>248.5729</v>
       </c>
       <c r="C17" t="n">
-        <v>615.6537</v>
+        <v>425.6491</v>
       </c>
       <c r="D17" t="n">
         <v>163.2675</v>
@@ -814,7 +788,7 @@
         <v>4000</v>
       </c>
       <c r="G17" t="n">
-        <v>2528.2367</v>
+        <v>3062.5105</v>
       </c>
     </row>
     <row r="18">
@@ -824,10 +798,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>540.3147</v>
+        <v>224.1602</v>
       </c>
       <c r="C18" t="n">
-        <v>604.263</v>
+        <v>235.982</v>
       </c>
       <c r="D18" t="n">
         <v>163.2675</v>
@@ -839,7 +813,7 @@
         <v>4000</v>
       </c>
       <c r="G18" t="n">
-        <v>2592.1548</v>
+        <v>3276.5903</v>
       </c>
     </row>
     <row r="19">
@@ -849,10 +823,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.9066</v>
+        <v>179.7574</v>
       </c>
       <c r="C19" t="n">
-        <v>583.99</v>
+        <v>327.146</v>
       </c>
       <c r="D19" t="n">
         <v>163.2675</v>
@@ -864,7 +838,7 @@
         <v>4000</v>
       </c>
       <c r="G19" t="n">
-        <v>2726.8359</v>
+        <v>3229.8291</v>
       </c>
     </row>
     <row r="20">
@@ -874,10 +848,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>540.4529</v>
+        <v>277.7059</v>
       </c>
       <c r="C20" t="n">
-        <v>471.762</v>
+        <v>292.2577</v>
       </c>
       <c r="D20" t="n">
         <v>163.2675</v>
@@ -889,7 +863,7 @@
         <v>4000</v>
       </c>
       <c r="G20" t="n">
-        <v>2724.5176</v>
+        <v>3166.7689</v>
       </c>
     </row>
     <row r="21">
@@ -899,10 +873,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>573.6273</v>
+        <v>296.2478</v>
       </c>
       <c r="C21" t="n">
-        <v>534.6609999999999</v>
+        <v>303.2812</v>
       </c>
       <c r="D21" t="n">
         <v>163.2675</v>
@@ -914,7 +888,7 @@
         <v>4000</v>
       </c>
       <c r="G21" t="n">
-        <v>2628.4442</v>
+        <v>3137.2035</v>
       </c>
     </row>
     <row r="22">
@@ -924,10 +898,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>466.1051</v>
+        <v>170.444</v>
       </c>
       <c r="C22" t="n">
-        <v>601.053</v>
+        <v>436.1984</v>
       </c>
       <c r="D22" t="n">
         <v>163.2675</v>
@@ -939,7 +913,7 @@
         <v>4000</v>
       </c>
       <c r="G22" t="n">
-        <v>2669.5744</v>
+        <v>3130.0901</v>
       </c>
     </row>
     <row r="23">
@@ -949,10 +923,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>583.0228</v>
+        <v>234.0469</v>
       </c>
       <c r="C23" t="n">
-        <v>715.0031</v>
+        <v>400.721</v>
       </c>
       <c r="D23" t="n">
         <v>163.2675</v>
@@ -964,7 +938,7 @@
         <v>4000</v>
       </c>
       <c r="G23" t="n">
-        <v>2438.7066</v>
+        <v>3101.9646</v>
       </c>
     </row>
     <row r="24">
@@ -974,10 +948,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>708.8438</v>
+        <v>296.0264</v>
       </c>
       <c r="C24" t="n">
-        <v>622.4886</v>
+        <v>333.4825</v>
       </c>
       <c r="D24" t="n">
         <v>163.2675</v>
@@ -989,7 +963,7 @@
         <v>4000</v>
       </c>
       <c r="G24" t="n">
-        <v>2405.4001</v>
+        <v>3107.2236</v>
       </c>
     </row>
     <row r="25">
@@ -999,10 +973,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>551.556</v>
+        <v>276.1085</v>
       </c>
       <c r="C25" t="n">
-        <v>929.5093000000001</v>
+        <v>602.5391</v>
       </c>
       <c r="D25" t="n">
         <v>163.2675</v>
@@ -1014,7 +988,7 @@
         <v>4000</v>
       </c>
       <c r="G25" t="n">
-        <v>2255.6672</v>
+        <v>2858.0849</v>
       </c>
     </row>
     <row r="26">
@@ -1024,10 +998,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>523.5282</v>
+        <v>239.5146</v>
       </c>
       <c r="C26" t="n">
-        <v>519.4933</v>
+        <v>323.7691</v>
       </c>
       <c r="D26" t="n">
         <v>163.2675</v>
@@ -1039,7 +1013,7 @@
         <v>4000</v>
       </c>
       <c r="G26" t="n">
-        <v>2693.711</v>
+        <v>3173.4488</v>
       </c>
     </row>
     <row r="27">
@@ -1049,10 +1023,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>507.1437</v>
+        <v>185.8419</v>
       </c>
       <c r="C27" t="n">
-        <v>604.8976</v>
+        <v>384.571</v>
       </c>
       <c r="D27" t="n">
         <v>163.2675</v>
@@ -1064,7 +1038,7 @@
         <v>4000</v>
       </c>
       <c r="G27" t="n">
-        <v>2624.6912</v>
+        <v>3166.3196</v>
       </c>
     </row>
     <row r="28">
@@ -1074,10 +1048,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>664.325</v>
+        <v>327.7891</v>
       </c>
       <c r="C28" t="n">
-        <v>518.3458000000001</v>
+        <v>222.5227</v>
       </c>
       <c r="D28" t="n">
         <v>163.2675</v>
@@ -1089,7 +1063,7 @@
         <v>4000</v>
       </c>
       <c r="G28" t="n">
-        <v>2554.0617</v>
+        <v>3186.4207</v>
       </c>
     </row>
     <row r="29">
@@ -1099,10 +1073,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>650.6135</v>
+        <v>356.2453</v>
       </c>
       <c r="C29" t="n">
-        <v>535.7913</v>
+        <v>261.2622</v>
       </c>
       <c r="D29" t="n">
         <v>163.2675</v>
@@ -1114,7 +1088,7 @@
         <v>4000</v>
       </c>
       <c r="G29" t="n">
-        <v>2550.3277</v>
+        <v>3119.225</v>
       </c>
     </row>
     <row r="30">
@@ -1124,10 +1098,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>588.6014</v>
+        <v>290.7556</v>
       </c>
       <c r="C30" t="n">
-        <v>547.1266000000001</v>
+        <v>286.5477</v>
       </c>
       <c r="D30" t="n">
         <v>163.2675</v>
@@ -1139,7 +1113,7 @@
         <v>4000</v>
       </c>
       <c r="G30" t="n">
-        <v>2601.0045</v>
+        <v>3159.4292</v>
       </c>
     </row>
     <row r="31">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>673.7917</v>
+        <v>296.4973</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9285</v>
+        <v>336.5648</v>
       </c>
       <c r="D31" t="n">
         <v>163.2675</v>
@@ -1164,7 +1138,7 @@
         <v>4000</v>
       </c>
       <c r="G31" t="n">
-        <v>2573.0123</v>
+        <v>3103.6704</v>
       </c>
     </row>
     <row r="32">
@@ -1174,10 +1148,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>629.4769</v>
+        <v>229.9693</v>
       </c>
       <c r="C32" t="n">
-        <v>485.722</v>
+        <v>243.3226</v>
       </c>
       <c r="D32" t="n">
         <v>163.2675</v>
@@ -1189,7 +1163,7 @@
         <v>4000</v>
       </c>
       <c r="G32" t="n">
-        <v>2621.5336</v>
+        <v>3263.4406</v>
       </c>
     </row>
     <row r="33">
@@ -1199,10 +1173,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>779.4796</v>
+        <v>259.1888</v>
       </c>
       <c r="C33" t="n">
-        <v>522.6645</v>
+        <v>227.8522</v>
       </c>
       <c r="D33" t="n">
         <v>163.2675</v>
@@ -1214,7 +1188,7 @@
         <v>4000</v>
       </c>
       <c r="G33" t="n">
-        <v>2434.5884</v>
+        <v>3249.6915</v>
       </c>
     </row>
     <row r="34">
@@ -1224,10 +1198,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>490.1938</v>
+        <v>241.1739</v>
       </c>
       <c r="C34" t="n">
-        <v>443.8684</v>
+        <v>262.8228</v>
       </c>
       <c r="D34" t="n">
         <v>163.2675</v>
@@ -1239,7 +1213,7 @@
         <v>4000</v>
       </c>
       <c r="G34" t="n">
-        <v>2802.6703</v>
+        <v>3232.7358</v>
       </c>
     </row>
     <row r="35">
@@ -1249,10 +1223,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>502.8372</v>
+        <v>223.5118</v>
       </c>
       <c r="C35" t="n">
-        <v>568.6846</v>
+        <v>315.3886</v>
       </c>
       <c r="D35" t="n">
         <v>163.2675</v>
@@ -1264,7 +1238,7 @@
         <v>4000</v>
       </c>
       <c r="G35" t="n">
-        <v>2665.2107</v>
+        <v>3197.8321</v>
       </c>
     </row>
     <row r="36">
@@ -1274,10 +1248,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>591.6795</v>
+        <v>311.4508</v>
       </c>
       <c r="C36" t="n">
-        <v>723.329</v>
+        <v>251.055</v>
       </c>
       <c r="D36" t="n">
         <v>163.2675</v>
@@ -1289,7 +1263,7 @@
         <v>4000</v>
       </c>
       <c r="G36" t="n">
-        <v>2421.724</v>
+        <v>3174.2267</v>
       </c>
     </row>
     <row r="37">
@@ -1299,10 +1273,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>600.5972</v>
+        <v>251.7332</v>
       </c>
       <c r="C37" t="n">
-        <v>637.072</v>
+        <v>315.0436</v>
       </c>
       <c r="D37" t="n">
         <v>163.2675</v>
@@ -1314,7 +1288,7 @@
         <v>4000</v>
       </c>
       <c r="G37" t="n">
-        <v>2499.0633</v>
+        <v>3169.9557</v>
       </c>
     </row>
     <row r="38">
@@ -1324,10 +1298,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>555.5702</v>
+        <v>208.8642</v>
       </c>
       <c r="C38" t="n">
-        <v>538.4321</v>
+        <v>281.6063</v>
       </c>
       <c r="D38" t="n">
         <v>163.2675</v>
@@ -1339,7 +1313,7 @@
         <v>4000</v>
       </c>
       <c r="G38" t="n">
-        <v>2642.7302</v>
+        <v>3246.262</v>
       </c>
     </row>
     <row r="39">
@@ -1349,10 +1323,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>556.2042</v>
+        <v>307.5206</v>
       </c>
       <c r="C39" t="n">
-        <v>497.7024</v>
+        <v>296.1647</v>
       </c>
       <c r="D39" t="n">
         <v>163.2675</v>
@@ -1364,7 +1338,7 @@
         <v>4000</v>
       </c>
       <c r="G39" t="n">
-        <v>2682.8259</v>
+        <v>3133.0472</v>
       </c>
     </row>
     <row r="40">
@@ -1374,10 +1348,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>478.4956</v>
+        <v>231.6679</v>
       </c>
       <c r="C40" t="n">
-        <v>531.8336</v>
+        <v>246.8491</v>
       </c>
       <c r="D40" t="n">
         <v>163.2675</v>
@@ -1389,7 +1363,7 @@
         <v>4000</v>
       </c>
       <c r="G40" t="n">
-        <v>2726.4033</v>
+        <v>3258.2155</v>
       </c>
     </row>
     <row r="41">
@@ -1399,10 +1373,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.2189</v>
+        <v>243.4535</v>
       </c>
       <c r="C41" t="n">
-        <v>590.5765</v>
+        <v>264.1376</v>
       </c>
       <c r="D41" t="n">
         <v>163.2675</v>
@@ -1414,7 +1388,7 @@
         <v>4000</v>
       </c>
       <c r="G41" t="n">
-        <v>2739.9371</v>
+        <v>3229.1414</v>
       </c>
     </row>
     <row r="42">
@@ -1424,10 +1398,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>356.9477</v>
+        <v>221.0168</v>
       </c>
       <c r="C42" t="n">
-        <v>540.1304</v>
+        <v>265.8666</v>
       </c>
       <c r="D42" t="n">
         <v>163.2675</v>
@@ -1439,7 +1413,7 @@
         <v>4000</v>
       </c>
       <c r="G42" t="n">
-        <v>2839.6544</v>
+        <v>3249.8491</v>
       </c>
     </row>
     <row r="43">
@@ -1449,10 +1423,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>937.6249</v>
+        <v>456.6322</v>
       </c>
       <c r="C43" t="n">
-        <v>480.6737</v>
+        <v>334.7157</v>
       </c>
       <c r="D43" t="n">
         <v>163.2675</v>
@@ -1464,7 +1438,7 @@
         <v>4000</v>
       </c>
       <c r="G43" t="n">
-        <v>2318.4339</v>
+        <v>2945.3846</v>
       </c>
     </row>
     <row r="44">
@@ -1474,10 +1448,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>565.5376</v>
+        <v>270.1977</v>
       </c>
       <c r="C44" t="n">
-        <v>576.0262</v>
+        <v>274.7913</v>
       </c>
       <c r="D44" t="n">
         <v>163.2675</v>
@@ -1489,7 +1463,7 @@
         <v>4000</v>
       </c>
       <c r="G44" t="n">
-        <v>2595.1687</v>
+        <v>3191.7435</v>
       </c>
     </row>
     <row r="45">
@@ -1499,10 +1473,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>550.3583</v>
+        <v>317.1568</v>
       </c>
       <c r="C45" t="n">
-        <v>397.3286</v>
+        <v>239.2072</v>
       </c>
       <c r="D45" t="n">
         <v>163.2675</v>
@@ -1514,7 +1488,7 @@
         <v>4000</v>
       </c>
       <c r="G45" t="n">
-        <v>2789.0456</v>
+        <v>3180.3685</v>
       </c>
     </row>
     <row r="46">
@@ -1524,10 +1498,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.2607</v>
+        <v>342.1998</v>
       </c>
       <c r="C46" t="n">
-        <v>577.7595</v>
+        <v>297.3322</v>
       </c>
       <c r="D46" t="n">
         <v>163.2675</v>
@@ -1539,7 +1513,7 @@
         <v>4000</v>
       </c>
       <c r="G46" t="n">
-        <v>2352.7123</v>
+        <v>3097.2005</v>
       </c>
     </row>
     <row r="47">
@@ -1549,10 +1523,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>537.6098</v>
+        <v>301.3197</v>
       </c>
       <c r="C47" t="n">
-        <v>465.352</v>
+        <v>223.796</v>
       </c>
       <c r="D47" t="n">
         <v>163.2675</v>
@@ -1564,7 +1538,7 @@
         <v>4000</v>
       </c>
       <c r="G47" t="n">
-        <v>2733.7707</v>
+        <v>3211.6168</v>
       </c>
     </row>
     <row r="48">
@@ -1574,10 +1548,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>536.0633</v>
+        <v>296.2201</v>
       </c>
       <c r="C48" t="n">
-        <v>418.3973</v>
+        <v>217.2132</v>
       </c>
       <c r="D48" t="n">
         <v>163.2675</v>
@@ -1589,7 +1563,7 @@
         <v>4000</v>
       </c>
       <c r="G48" t="n">
-        <v>2782.2719</v>
+        <v>3223.2992</v>
       </c>
     </row>
     <row r="49">
@@ -1599,10 +1573,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>657.8415</v>
+        <v>268.5258</v>
       </c>
       <c r="C49" t="n">
-        <v>631.9884</v>
+        <v>406.3231</v>
       </c>
       <c r="D49" t="n">
         <v>163.2675</v>
@@ -1614,7 +1588,7 @@
         <v>4000</v>
       </c>
       <c r="G49" t="n">
-        <v>2446.9026</v>
+        <v>3061.8836</v>
       </c>
     </row>
     <row r="50">
@@ -1624,10 +1598,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>369.6508</v>
+        <v>206.4684</v>
       </c>
       <c r="C50" t="n">
-        <v>756.4018</v>
+        <v>587.4554000000001</v>
       </c>
       <c r="D50" t="n">
         <v>163.2675</v>
@@ -1639,7 +1613,7 @@
         <v>4000</v>
       </c>
       <c r="G50" t="n">
-        <v>2610.6799</v>
+        <v>2942.8087</v>
       </c>
     </row>
     <row r="51">
@@ -1649,10 +1623,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>502.1199</v>
+        <v>233.9605</v>
       </c>
       <c r="C51" t="n">
-        <v>709.2405</v>
+        <v>368.8976</v>
       </c>
       <c r="D51" t="n">
         <v>163.2675</v>
@@ -1664,7 +1638,7 @@
         <v>4000</v>
       </c>
       <c r="G51" t="n">
-        <v>2525.3721</v>
+        <v>3133.8744</v>
       </c>
     </row>
     <row r="52">
@@ -1674,10 +1648,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>666.211</v>
+        <v>293.2858</v>
       </c>
       <c r="C52" t="n">
-        <v>450.1439</v>
+        <v>305.3568</v>
       </c>
       <c r="D52" t="n">
         <v>163.2675</v>
@@ -1689,7 +1663,7 @@
         <v>4000</v>
       </c>
       <c r="G52" t="n">
-        <v>2620.3776</v>
+        <v>3138.0899</v>
       </c>
     </row>
     <row r="53">
@@ -1699,10 +1673,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>570.9909</v>
+        <v>302.6149</v>
       </c>
       <c r="C53" t="n">
-        <v>458.5489</v>
+        <v>233.9259</v>
       </c>
       <c r="D53" t="n">
         <v>163.2675</v>
@@ -1714,7 +1688,7 @@
         <v>4000</v>
       </c>
       <c r="G53" t="n">
-        <v>2707.1927</v>
+        <v>3200.1917</v>
       </c>
     </row>
     <row r="54">
@@ -1724,10 +1698,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>458.1179</v>
+        <v>187.7361</v>
       </c>
       <c r="C54" t="n">
-        <v>534.3454</v>
+        <v>400.3665</v>
       </c>
       <c r="D54" t="n">
         <v>163.2675</v>
@@ -1739,7 +1713,7 @@
         <v>4000</v>
       </c>
       <c r="G54" t="n">
-        <v>2744.2692</v>
+        <v>3148.6299</v>
       </c>
     </row>
     <row r="55">
@@ -1749,10 +1723,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>902.3713</v>
+        <v>296.054</v>
       </c>
       <c r="C55" t="n">
-        <v>538.0663</v>
+        <v>288.8205</v>
       </c>
       <c r="D55" t="n">
         <v>163.2675</v>
@@ -1764,7 +1738,7 @@
         <v>4000</v>
       </c>
       <c r="G55" t="n">
-        <v>2296.2949</v>
+        <v>3151.858</v>
       </c>
     </row>
     <row r="56">
@@ -1774,10 +1748,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>739.4526</v>
+        <v>349.0236</v>
       </c>
       <c r="C56" t="n">
-        <v>527.7142</v>
+        <v>276.1807</v>
       </c>
       <c r="D56" t="n">
         <v>163.2675</v>
@@ -1789,7 +1763,7 @@
         <v>4000</v>
       </c>
       <c r="G56" t="n">
-        <v>2469.5657</v>
+        <v>3111.5282</v>
       </c>
     </row>
     <row r="57">
@@ -1799,10 +1773,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>397.1542</v>
+        <v>204.2454</v>
       </c>
       <c r="C57" t="n">
-        <v>520.3893</v>
+        <v>250.8959</v>
       </c>
       <c r="D57" t="n">
         <v>163.2675</v>
@@ -1814,7 +1788,7 @@
         <v>4000</v>
       </c>
       <c r="G57" t="n">
-        <v>2819.189</v>
+        <v>3281.5912</v>
       </c>
     </row>
     <row r="58">
@@ -1824,10 +1798,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>565.588</v>
+        <v>239.8592</v>
       </c>
       <c r="C58" t="n">
-        <v>444.8657</v>
+        <v>285.8238</v>
       </c>
       <c r="D58" t="n">
         <v>163.2675</v>
@@ -1839,7 +1813,7 @@
         <v>4000</v>
       </c>
       <c r="G58" t="n">
-        <v>2726.2788</v>
+        <v>3211.0495</v>
       </c>
     </row>
     <row r="59">
@@ -1849,10 +1823,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>516.2762</v>
+        <v>210.4599</v>
       </c>
       <c r="C59" t="n">
-        <v>571.0423</v>
+        <v>420.5635</v>
       </c>
       <c r="D59" t="n">
         <v>163.2675</v>
@@ -1864,7 +1838,7 @@
         <v>4000</v>
       </c>
       <c r="G59" t="n">
-        <v>2649.414</v>
+        <v>3105.7091</v>
       </c>
     </row>
     <row r="60">
@@ -1874,10 +1848,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>393.0155</v>
+        <v>218.743</v>
       </c>
       <c r="C60" t="n">
-        <v>431.0937</v>
+        <v>256.3988</v>
       </c>
       <c r="D60" t="n">
         <v>163.2675</v>
@@ -1889,7 +1863,7 @@
         <v>4000</v>
       </c>
       <c r="G60" t="n">
-        <v>2912.6233</v>
+        <v>3261.5907</v>
       </c>
     </row>
     <row r="61">
@@ -1899,10 +1873,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>537.473</v>
+        <v>382.8977</v>
       </c>
       <c r="C61" t="n">
-        <v>517.4146</v>
+        <v>362.5647</v>
       </c>
       <c r="D61" t="n">
         <v>163.2675</v>
@@ -1914,7 +1888,7 @@
         <v>4000</v>
       </c>
       <c r="G61" t="n">
-        <v>2681.8449</v>
+        <v>2991.2701</v>
       </c>
     </row>
     <row r="62">
@@ -1924,10 +1898,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>598.6677</v>
+        <v>262.0185</v>
       </c>
       <c r="C62" t="n">
-        <v>610.7282</v>
+        <v>311.7573</v>
       </c>
       <c r="D62" t="n">
         <v>163.2675</v>
@@ -1939,7 +1913,7 @@
         <v>4000</v>
       </c>
       <c r="G62" t="n">
-        <v>2527.3366</v>
+        <v>3162.9567</v>
       </c>
     </row>
     <row r="63">
@@ -1949,10 +1923,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>762.8680000000001</v>
+        <v>398.0024</v>
       </c>
       <c r="C63" t="n">
-        <v>607.7989</v>
+        <v>439.5269</v>
       </c>
       <c r="D63" t="n">
         <v>163.2675</v>
@@ -1964,7 +1938,7 @@
         <v>4000</v>
       </c>
       <c r="G63" t="n">
-        <v>2366.0656</v>
+        <v>2899.2032</v>
       </c>
     </row>
     <row r="64">
@@ -1974,10 +1948,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>837.0434</v>
+        <v>338.1093</v>
       </c>
       <c r="C64" t="n">
-        <v>459.3468</v>
+        <v>283.0404</v>
       </c>
       <c r="D64" t="n">
         <v>163.2675</v>
@@ -1989,7 +1963,7 @@
         <v>4000</v>
       </c>
       <c r="G64" t="n">
-        <v>2440.3423</v>
+        <v>3115.5828</v>
       </c>
     </row>
     <row r="65">
@@ -1999,10 +1973,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>433.2456</v>
+        <v>202.4055</v>
       </c>
       <c r="C65" t="n">
-        <v>371.1884</v>
+        <v>204.6016</v>
       </c>
       <c r="D65" t="n">
         <v>163.2675</v>
@@ -2014,7 +1988,7 @@
         <v>4000</v>
       </c>
       <c r="G65" t="n">
-        <v>2932.2985</v>
+        <v>3329.7254</v>
       </c>
     </row>
     <row r="66">
@@ -2024,10 +1998,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>997.2456</v>
+        <v>392.1399</v>
       </c>
       <c r="C66" t="n">
-        <v>477.666</v>
+        <v>305.8875</v>
       </c>
       <c r="D66" t="n">
         <v>163.2675</v>
@@ -2039,7 +2013,7 @@
         <v>4000</v>
       </c>
       <c r="G66" t="n">
-        <v>2261.8209</v>
+        <v>3038.7051</v>
       </c>
     </row>
     <row r="67">
@@ -2049,10 +2023,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>455.1234</v>
+        <v>227.5413</v>
       </c>
       <c r="C67" t="n">
-        <v>462.9718</v>
+        <v>348.7163</v>
       </c>
       <c r="D67" t="n">
         <v>163.2675</v>
@@ -2064,7 +2038,7 @@
         <v>4000</v>
       </c>
       <c r="G67" t="n">
-        <v>2818.6373</v>
+        <v>3160.4749</v>
       </c>
     </row>
     <row r="68">
@@ -2074,10 +2048,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>442.1031</v>
+        <v>250.3804</v>
       </c>
       <c r="C68" t="n">
-        <v>451.813</v>
+        <v>234.3932</v>
       </c>
       <c r="D68" t="n">
         <v>163.2675</v>
@@ -2089,7 +2063,7 @@
         <v>4000</v>
       </c>
       <c r="G68" t="n">
-        <v>2842.8164</v>
+        <v>3251.9589</v>
       </c>
     </row>
     <row r="69">
@@ -2099,10 +2073,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>466.2423</v>
+        <v>211.2739</v>
       </c>
       <c r="C69" t="n">
-        <v>430.6835</v>
+        <v>200.3193</v>
       </c>
       <c r="D69" t="n">
         <v>163.2675</v>
@@ -2114,7 +2088,7 @@
         <v>4000</v>
       </c>
       <c r="G69" t="n">
-        <v>2839.8067</v>
+        <v>3325.1393</v>
       </c>
     </row>
     <row r="70">
@@ -2124,10 +2098,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>440.4435</v>
+        <v>249.5716</v>
       </c>
       <c r="C70" t="n">
-        <v>470.3262</v>
+        <v>289.9572</v>
       </c>
       <c r="D70" t="n">
         <v>163.2675</v>
@@ -2139,7 +2113,7 @@
         <v>4000</v>
       </c>
       <c r="G70" t="n">
-        <v>2825.9628</v>
+        <v>3197.2037</v>
       </c>
     </row>
     <row r="71">
@@ -2149,10 +2123,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>612.6771</v>
+        <v>323.3395</v>
       </c>
       <c r="C71" t="n">
-        <v>683.6058</v>
+        <v>296.0817</v>
       </c>
       <c r="D71" t="n">
         <v>163.2675</v>
@@ -2164,7 +2138,7 @@
         <v>4000</v>
       </c>
       <c r="G71" t="n">
-        <v>2440.4496</v>
+        <v>3117.3113</v>
       </c>
     </row>
     <row r="72">
@@ -2174,10 +2148,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>867.8858</v>
+        <v>405.0245</v>
       </c>
       <c r="C72" t="n">
-        <v>421.2066</v>
+        <v>285.2063</v>
       </c>
       <c r="D72" t="n">
         <v>163.2675</v>
@@ -2189,7 +2163,7 @@
         <v>4000</v>
       </c>
       <c r="G72" t="n">
-        <v>2447.6401</v>
+        <v>3046.5017</v>
       </c>
     </row>
     <row r="73">
@@ -2199,10 +2173,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>689.8579</v>
+        <v>215.5285</v>
       </c>
       <c r="C73" t="n">
-        <v>439.8015</v>
+        <v>294.5675</v>
       </c>
       <c r="D73" t="n">
         <v>163.2675</v>
@@ -2214,7 +2188,7 @@
         <v>4000</v>
       </c>
       <c r="G73" t="n">
-        <v>2607.0731</v>
+        <v>3226.6365</v>
       </c>
     </row>
     <row r="74">
@@ -2224,10 +2198,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>630.793</v>
+        <v>206.2399</v>
       </c>
       <c r="C74" t="n">
-        <v>785.1788</v>
+        <v>358.0167</v>
       </c>
       <c r="D74" t="n">
         <v>163.2675</v>
@@ -2239,7 +2213,7 @@
         <v>4000</v>
       </c>
       <c r="G74" t="n">
-        <v>2320.7607</v>
+        <v>3172.4759</v>
       </c>
     </row>
     <row r="75">
@@ -2249,10 +2223,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>437.8261</v>
+        <v>274.173</v>
       </c>
       <c r="C75" t="n">
-        <v>473.8436</v>
+        <v>232.1772</v>
       </c>
       <c r="D75" t="n">
         <v>163.2675</v>
@@ -2264,7 +2238,7 @@
         <v>4000</v>
       </c>
       <c r="G75" t="n">
-        <v>2825.0628</v>
+        <v>3230.3823</v>
       </c>
     </row>
     <row r="76">
@@ -2274,10 +2248,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>617.9353</v>
+        <v>426.681</v>
       </c>
       <c r="C76" t="n">
-        <v>661.0673</v>
+        <v>334.433</v>
       </c>
       <c r="D76" t="n">
         <v>163.2675</v>
@@ -2289,7 +2263,7 @@
         <v>4000</v>
       </c>
       <c r="G76" t="n">
-        <v>2457.7299</v>
+        <v>2975.6185</v>
       </c>
     </row>
     <row r="77">
@@ -2299,10 +2273,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>572.2802</v>
+        <v>220.0649</v>
       </c>
       <c r="C77" t="n">
-        <v>550.5974</v>
+        <v>334.6096</v>
       </c>
       <c r="D77" t="n">
         <v>163.2675</v>
@@ -2314,7 +2288,7 @@
         <v>4000</v>
       </c>
       <c r="G77" t="n">
-        <v>2613.8549</v>
+        <v>3182.058</v>
       </c>
     </row>
     <row r="78">
@@ -2324,10 +2298,10 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>548.5477</v>
+        <v>211.1331</v>
       </c>
       <c r="C78" t="n">
-        <v>557.4766</v>
+        <v>351.1514</v>
       </c>
       <c r="D78" t="n">
         <v>163.2675</v>
@@ -2339,7 +2313,7 @@
         <v>4000</v>
       </c>
       <c r="G78" t="n">
-        <v>2630.7082</v>
+        <v>3174.448</v>
       </c>
     </row>
     <row r="79">
@@ -2349,10 +2323,10 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>460.0138</v>
+        <v>214.2748</v>
       </c>
       <c r="C79" t="n">
-        <v>525.7001</v>
+        <v>358.0167</v>
       </c>
       <c r="D79" t="n">
         <v>163.2675</v>
@@ -2364,7 +2338,7 @@
         <v>4000</v>
       </c>
       <c r="G79" t="n">
-        <v>2751.0186</v>
+        <v>3164.441</v>
       </c>
     </row>
     <row r="80">
@@ -2374,10 +2348,10 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>695.385</v>
+        <v>280.8822</v>
       </c>
       <c r="C80" t="n">
-        <v>527.3189</v>
+        <v>281.5062</v>
       </c>
       <c r="D80" t="n">
         <v>163.2675</v>
@@ -2389,7 +2363,7 @@
         <v>4000</v>
       </c>
       <c r="G80" t="n">
-        <v>2514.0286</v>
+        <v>3174.3441</v>
       </c>
     </row>
     <row r="81">
@@ -2399,10 +2373,10 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>704.4305000000001</v>
+        <v>421.7954</v>
       </c>
       <c r="C81" t="n">
-        <v>478.5679</v>
+        <v>290.7022</v>
       </c>
       <c r="D81" t="n">
         <v>163.2675</v>
@@ -2414,7 +2388,7 @@
         <v>4000</v>
       </c>
       <c r="G81" t="n">
-        <v>2553.7341</v>
+        <v>3024.2349</v>
       </c>
     </row>
     <row r="82">
@@ -2424,10 +2398,10 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>593.731</v>
+        <v>309.6547</v>
       </c>
       <c r="C82" t="n">
-        <v>476.8391</v>
+        <v>225.3882</v>
       </c>
       <c r="D82" t="n">
         <v>163.2675</v>
@@ -2439,7 +2413,7 @@
         <v>4000</v>
       </c>
       <c r="G82" t="n">
-        <v>2666.1624</v>
+        <v>3201.6896</v>
       </c>
     </row>
     <row r="83">
@@ -2449,10 +2423,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>534.9318</v>
+        <v>244.1289</v>
       </c>
       <c r="C83" t="n">
-        <v>568.8889</v>
+        <v>304.5641</v>
       </c>
       <c r="D83" t="n">
         <v>163.2675</v>
@@ -2464,7 +2438,7 @@
         <v>4000</v>
       </c>
       <c r="G83" t="n">
-        <v>2632.9118</v>
+        <v>3188.0395</v>
       </c>
     </row>
     <row r="84">
@@ -2474,10 +2448,10 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>605.9389</v>
+        <v>273.9596</v>
       </c>
       <c r="C84" t="n">
-        <v>542.2104</v>
+        <v>216.4119</v>
       </c>
       <c r="D84" t="n">
         <v>163.2675</v>
@@ -2489,7 +2463,7 @@
         <v>4000</v>
       </c>
       <c r="G84" t="n">
-        <v>2588.5832</v>
+        <v>3246.361</v>
       </c>
     </row>
     <row r="85">
@@ -2499,10 +2473,10 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>492.3651</v>
+        <v>220.9089</v>
       </c>
       <c r="C85" t="n">
-        <v>447.3471</v>
+        <v>312.0337</v>
       </c>
       <c r="D85" t="n">
         <v>163.2675</v>
@@ -2514,7 +2488,7 @@
         <v>4000</v>
       </c>
       <c r="G85" t="n">
-        <v>2797.0203</v>
+        <v>3203.7899</v>
       </c>
     </row>
     <row r="86">
@@ -2524,10 +2498,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>487.5159</v>
+        <v>249.1203</v>
       </c>
       <c r="C86" t="n">
-        <v>458.6817</v>
+        <v>260.339</v>
       </c>
       <c r="D86" t="n">
         <v>163.2675</v>
@@ -2539,7 +2513,7 @@
         <v>4000</v>
       </c>
       <c r="G86" t="n">
-        <v>2790.5349</v>
+        <v>3227.2732</v>
       </c>
     </row>
     <row r="87">
@@ -2549,10 +2523,10 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>656.2743</v>
+        <v>403.2202</v>
       </c>
       <c r="C87" t="n">
-        <v>653.2295</v>
+        <v>533.1763</v>
       </c>
       <c r="D87" t="n">
         <v>163.2675</v>
@@ -2564,7 +2538,7 @@
         <v>4000</v>
       </c>
       <c r="G87" t="n">
-        <v>2427.2287</v>
+        <v>2800.336</v>
       </c>
     </row>
     <row r="88">
@@ -2574,10 +2548,10 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>609.0844</v>
+        <v>280.1866</v>
       </c>
       <c r="C88" t="n">
-        <v>439.771</v>
+        <v>287.4838</v>
       </c>
       <c r="D88" t="n">
         <v>163.2675</v>
@@ -2589,7 +2563,7 @@
         <v>4000</v>
       </c>
       <c r="G88" t="n">
-        <v>2687.8771</v>
+        <v>3169.0621</v>
       </c>
     </row>
     <row r="89">
@@ -2599,10 +2573,10 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>494.2085</v>
+        <v>274.9821</v>
       </c>
       <c r="C89" t="n">
-        <v>432.0933</v>
+        <v>308.7795</v>
       </c>
       <c r="D89" t="n">
         <v>163.2675</v>
@@ -2614,7 +2588,7 @@
         <v>4000</v>
       </c>
       <c r="G89" t="n">
-        <v>2810.4307</v>
+        <v>3152.9709</v>
       </c>
     </row>
     <row r="90">
@@ -2624,10 +2598,10 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>609.4358999999999</v>
+        <v>227.1171</v>
       </c>
       <c r="C90" t="n">
-        <v>380.918</v>
+        <v>210.0273</v>
       </c>
       <c r="D90" t="n">
         <v>163.2675</v>
@@ -2639,7 +2613,7 @@
         <v>4000</v>
       </c>
       <c r="G90" t="n">
-        <v>2746.3786</v>
+        <v>3299.5881</v>
       </c>
     </row>
     <row r="91">
@@ -2649,10 +2623,10 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1035.2095</v>
+        <v>420.3403</v>
       </c>
       <c r="C91" t="n">
-        <v>587.1832000000001</v>
+        <v>350.3359</v>
       </c>
       <c r="D91" t="n">
         <v>163.2675</v>
@@ -2664,7 +2638,7 @@
         <v>4000</v>
       </c>
       <c r="G91" t="n">
-        <v>2114.3398</v>
+        <v>2966.0563</v>
       </c>
     </row>
     <row r="92">
@@ -2674,10 +2648,10 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>565.689</v>
+        <v>271.8672</v>
       </c>
       <c r="C92" t="n">
-        <v>471.2007</v>
+        <v>252.9998</v>
       </c>
       <c r="D92" t="n">
         <v>163.2675</v>
@@ -2689,7 +2663,7 @@
         <v>4000</v>
       </c>
       <c r="G92" t="n">
-        <v>2699.8428</v>
+        <v>3211.8655</v>
       </c>
     </row>
     <row r="93">
@@ -2699,10 +2673,10 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>570.6823000000001</v>
+        <v>284.2594</v>
       </c>
       <c r="C93" t="n">
-        <v>614.9964</v>
+        <v>261.9535</v>
       </c>
       <c r="D93" t="n">
         <v>163.2675</v>
@@ -2714,7 +2688,7 @@
         <v>4000</v>
       </c>
       <c r="G93" t="n">
-        <v>2551.0538</v>
+        <v>3190.5196</v>
       </c>
     </row>
     <row r="94">
@@ -2724,10 +2698,10 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>751.646</v>
+        <v>347.3018</v>
       </c>
       <c r="C94" t="n">
-        <v>362.627</v>
+        <v>315.0123</v>
       </c>
       <c r="D94" t="n">
         <v>163.2675</v>
@@ -2739,7 +2713,7 @@
         <v>4000</v>
       </c>
       <c r="G94" t="n">
-        <v>2622.4595</v>
+        <v>3074.4184</v>
       </c>
     </row>
     <row r="95">
@@ -2749,10 +2723,10 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>591.2378</v>
+        <v>192.8327</v>
       </c>
       <c r="C95" t="n">
-        <v>404.5073</v>
+        <v>327.4165</v>
       </c>
       <c r="D95" t="n">
         <v>163.2675</v>
@@ -2764,52 +2738,57 @@
         <v>4000</v>
       </c>
       <c r="G95" t="n">
-        <v>2740.9874</v>
+        <v>3216.4833</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>G12</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>272.2176</v>
+      </c>
+      <c r="C96" t="n">
+        <v>433.8092</v>
+      </c>
+      <c r="D96" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E96" t="n">
+        <v>100</v>
+      </c>
+      <c r="F96" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G96" t="n">
+        <v>3030.7057</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
         <is>
           <t>H12</t>
         </is>
       </c>
-      <c r="B96" s="1" t="n">
-        <v>3270.972332946494</v>
-      </c>
-      <c r="C96" s="1" t="n">
-        <v>465.7601670535061</v>
-      </c>
-      <c r="D96" s="1" t="n">
-        <v>163.2675</v>
-      </c>
-      <c r="E96" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F96" s="1" t="n">
-        <v>4000</v>
-      </c>
-      <c r="G96" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Ca:1.5305000000000002</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>Cb:10.7485</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>Old_Col2:4139.8236</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Old_Col3:589.4776</t>
-        </is>
+      <c r="B97" t="n">
+        <v>237.8959</v>
+      </c>
+      <c r="C97" t="n">
+        <v>201.9668</v>
+      </c>
+      <c r="D97" t="n">
+        <v>163.2675</v>
+      </c>
+      <c r="E97" t="n">
+        <v>100</v>
+      </c>
+      <c r="F97" t="n">
+        <v>4000</v>
+      </c>
+      <c r="G97" t="n">
+        <v>3296.8698</v>
       </c>
     </row>
   </sheetData>
